--- a/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
+++ b/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\HillsongWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE798F4-ACFC-4214-A58E-4716015CD813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD7B84-6E5C-4F40-AD23-C6355A0C95E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$I$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Albums!$A$1:$J$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Rejected (Compilations)'!$A$1:$L$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Songs!$A$1:$L$766</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Statistics!$A$1:$D$1</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="1303">
   <si>
     <t>The Power of Your Love</t>
   </si>
@@ -3951,6 +3951,9 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>Exclude</t>
   </si>
 </sst>
 </file>
@@ -5503,514 +5506,514 @@
             <v>7087777</v>
           </cell>
         </row>
+        <row r="297">
+          <cell r="L297">
+            <v>42964</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="L298">
+            <v>2672885</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="L299">
+            <v>7008232</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="L300">
+            <v>120556</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="L301">
+            <v>5869860</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="L302">
+            <v>22025</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="L303">
+            <v>2986399</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="L304">
+            <v>25280</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="L305">
+            <v>21105</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="L306">
+            <v>1431</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="L307">
+            <v>29499</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="L308">
+            <v>30639</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="L309">
+            <v>5937510</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="L310">
+            <v>1101763</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="L311">
+            <v>22324</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="L312">
+            <v>5910977</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="L313">
+            <v>6186078</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="L314">
+            <v>4705190</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="L315">
+            <v>27965</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="L316">
+            <v>7019316</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="L317">
+            <v>2430948</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="L318">
+            <v>108389</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="L319">
+            <v>6463818</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="L320">
+            <v>1537904</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="L321">
+            <v>7102440</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="L322">
+            <v>5869877</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="L323">
+            <v>7068806</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="L324">
+            <v>5037070</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="L325">
+            <v>7091509</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="L326">
+            <v>7109317</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="L327">
+            <v>6550556</v>
+          </cell>
+        </row>
         <row r="328">
           <cell r="L328">
-            <v>3540703</v>
+            <v>4026635</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="L329">
+            <v>7111925</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="L330">
+            <v>3287884</v>
           </cell>
         </row>
         <row r="331">
           <cell r="L331">
-            <v>7108951</v>
+            <v>6129798</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="L332">
+            <v>1156</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="L333">
+            <v>21545</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="L334">
+            <v>107816</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="L335">
+            <v>2978857</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="L336">
+            <v>31762</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="L337">
+            <v>5869884</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="L338">
+            <v>25297</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="L339">
+            <v>23914</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="L340">
+            <v>7074703</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="L341">
+            <v>2328610</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="L342">
+            <v>26399</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="L343">
+            <v>25376</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="L344">
+            <v>148576</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="L345">
+            <v>7121850</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="L346">
+            <v>6223539</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="L347">
+            <v>23206</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="L348">
+            <v>5635850</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="L349">
+            <v>1045238</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="L350">
+            <v>16787</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="L351">
+            <v>6223577</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="L352">
+            <v>33935</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="L353">
+            <v>117947</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="L354">
+            <v>18448</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="L355">
+            <v>1527</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="L356">
+            <v>24133</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="L357">
+            <v>6428853</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="L358">
+            <v>7065990</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="L359">
+            <v>7002032</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="L360">
+            <v>2397964</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="L361">
+            <v>78835</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="L362">
+            <v>4611992</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="L363">
+            <v>137178</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="L364">
+            <v>7044259</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="L365">
+            <v>1564362</v>
           </cell>
         </row>
         <row r="366">
           <cell r="L366">
-            <v>42964</v>
+            <v>47017</v>
           </cell>
         </row>
         <row r="367">
           <cell r="L367">
-            <v>2672885</v>
+            <v>917491</v>
           </cell>
         </row>
         <row r="368">
           <cell r="L368">
-            <v>7008232</v>
+            <v>4543620</v>
           </cell>
         </row>
         <row r="369">
           <cell r="L369">
-            <v>120556</v>
+            <v>5875153</v>
           </cell>
         </row>
         <row r="370">
           <cell r="L370">
-            <v>5869860</v>
+            <v>1352</v>
           </cell>
         </row>
         <row r="371">
           <cell r="L371">
-            <v>22025</v>
+            <v>25417</v>
           </cell>
         </row>
         <row r="372">
           <cell r="L372">
-            <v>2986399</v>
+            <v>3940963</v>
           </cell>
         </row>
         <row r="373">
           <cell r="L373">
-            <v>25280</v>
+            <v>4514635</v>
           </cell>
         </row>
         <row r="374">
           <cell r="L374">
-            <v>21105</v>
+            <v>1390</v>
           </cell>
         </row>
         <row r="375">
           <cell r="L375">
-            <v>1431</v>
+            <v>27707</v>
           </cell>
         </row>
         <row r="376">
           <cell r="L376">
-            <v>29499</v>
+            <v>11483</v>
           </cell>
         </row>
         <row r="377">
           <cell r="L377">
-            <v>30639</v>
+            <v>6167640</v>
           </cell>
         </row>
         <row r="378">
           <cell r="L378">
-            <v>5937510</v>
+            <v>23426</v>
           </cell>
         </row>
         <row r="379">
           <cell r="L379">
-            <v>1101763</v>
+            <v>22094</v>
           </cell>
         </row>
         <row r="380">
           <cell r="L380">
-            <v>22324</v>
+            <v>6454621</v>
           </cell>
         </row>
         <row r="381">
           <cell r="L381">
-            <v>5910977</v>
+            <v>1259</v>
           </cell>
         </row>
         <row r="382">
           <cell r="L382">
-            <v>6186078</v>
+            <v>7115744</v>
           </cell>
         </row>
         <row r="383">
           <cell r="L383">
-            <v>4705190</v>
+            <v>6367165</v>
           </cell>
         </row>
         <row r="384">
           <cell r="L384">
-            <v>27965</v>
+            <v>27893</v>
           </cell>
         </row>
         <row r="385">
           <cell r="L385">
-            <v>7019316</v>
+            <v>31315</v>
           </cell>
         </row>
         <row r="386">
           <cell r="L386">
-            <v>2430948</v>
+            <v>4196651</v>
           </cell>
         </row>
         <row r="387">
           <cell r="L387">
-            <v>108389</v>
+            <v>106879</v>
           </cell>
         </row>
         <row r="388">
           <cell r="L388">
-            <v>6463818</v>
+            <v>4243463</v>
           </cell>
         </row>
         <row r="389">
           <cell r="L389">
-            <v>1537904</v>
+            <v>2332149</v>
           </cell>
         </row>
         <row r="390">
           <cell r="L390">
-            <v>7102440</v>
+            <v>6214751</v>
           </cell>
         </row>
         <row r="391">
           <cell r="L391">
-            <v>5869877</v>
+            <v>31669</v>
           </cell>
         </row>
         <row r="392">
           <cell r="L392">
-            <v>7068806</v>
+            <v>39441</v>
           </cell>
         </row>
         <row r="393">
           <cell r="L393">
-            <v>5037070</v>
+            <v>85158</v>
           </cell>
         </row>
         <row r="394">
           <cell r="L394">
-            <v>7091509</v>
+            <v>839225</v>
           </cell>
         </row>
         <row r="395">
           <cell r="L395">
-            <v>7109317</v>
+            <v>38002</v>
           </cell>
         </row>
         <row r="396">
           <cell r="L396">
-            <v>6550556</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="L397">
-            <v>4026635</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="L398">
-            <v>7111925</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="L399">
-            <v>3287884</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="L400">
-            <v>6129798</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="L401">
-            <v>1156</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="L402">
-            <v>21545</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="L403">
-            <v>107816</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="L404">
-            <v>2978857</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="L405">
-            <v>31762</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="L406">
-            <v>5869884</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="L407">
-            <v>25297</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="L408">
-            <v>23914</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="L409">
-            <v>7074703</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="L410">
-            <v>2328610</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="L411">
-            <v>26399</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="L412">
-            <v>25376</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="L413">
-            <v>148576</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="L414">
-            <v>7121850</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="L415">
-            <v>6223539</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="L416">
-            <v>23206</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="L417">
-            <v>5635850</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="L418">
-            <v>1045238</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="L419">
-            <v>16787</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="L420">
-            <v>6223577</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="L421">
-            <v>33935</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="L422">
-            <v>117947</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="L423">
-            <v>18448</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="L424">
-            <v>1527</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="L425">
-            <v>24133</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="L426">
-            <v>6428853</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="L427">
-            <v>7065990</v>
+            <v>32008</v>
           </cell>
         </row>
         <row r="428">
           <cell r="L428">
-            <v>7002032</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="L429">
-            <v>2397964</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="L430">
-            <v>78835</v>
+            <v>3540703</v>
           </cell>
         </row>
         <row r="431">
           <cell r="L431">
-            <v>4611992</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="L432">
-            <v>137178</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="L433">
-            <v>7044259</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="L434">
-            <v>1564362</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="L435">
-            <v>47017</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="L436">
-            <v>917491</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="L437">
-            <v>4543620</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="L438">
-            <v>5875153</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="L439">
-            <v>1352</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="L440">
-            <v>25417</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="L441">
-            <v>3940963</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="L442">
-            <v>4514635</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="L443">
-            <v>1390</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="L444">
-            <v>27707</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="L445">
-            <v>11483</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="L446">
-            <v>6167640</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="L447">
-            <v>23426</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="L448">
-            <v>22094</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="L449">
-            <v>6454621</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="L450">
-            <v>1259</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="L451">
-            <v>7115744</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="L452">
-            <v>6367165</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="L453">
-            <v>27893</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="L454">
-            <v>31315</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="L455">
-            <v>4196651</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="L456">
-            <v>106879</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="L457">
-            <v>4243463</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="L458">
-            <v>2332149</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="L459">
-            <v>6214751</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="L460">
-            <v>31669</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="L461">
-            <v>39441</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="L462">
-            <v>85158</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="L463">
-            <v>839225</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="L464">
-            <v>38002</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="L465">
-            <v>32008</v>
+            <v>7108951</v>
           </cell>
         </row>
       </sheetData>
@@ -6710,9 +6713,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D286E50E-6BC8-441C-90CC-9163DBBBBFAC}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6722,10 +6725,10 @@
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1299</v>
       </c>
@@ -6750,11 +6753,14 @@
       <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1988</v>
       </c>
@@ -6774,11 +6780,11 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1990</v>
       </c>
@@ -6798,11 +6804,11 @@
       <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1992</v>
       </c>
@@ -6822,11 +6828,11 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1993</v>
       </c>
@@ -6846,11 +6852,11 @@
       <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1994</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1995</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1996</v>
       </c>
@@ -6913,7 +6919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1996</v>
       </c>
@@ -6934,7 +6940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1996</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1997</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1997</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1998</v>
       </c>
@@ -7017,11 +7023,11 @@
       <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1998</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1998</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1999</v>
       </c>
@@ -7128,7 +7134,9 @@
       <c r="H18" t="s">
         <v>1270</v>
       </c>
-      <c r="I18"/>
+      <c r="I18" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -7303,7 +7311,9 @@
       <c r="H26" t="s">
         <v>355</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
@@ -7328,7 +7338,9 @@
       <c r="H27" t="s">
         <v>355</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -7374,7 +7386,9 @@
       <c r="H29" t="s">
         <v>1270</v>
       </c>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
@@ -7546,7 +7560,9 @@
       <c r="H37" t="s">
         <v>355</v>
       </c>
-      <c r="I37"/>
+      <c r="I37" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
@@ -7742,7 +7758,9 @@
       <c r="H46" t="s">
         <v>355</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -8043,7 +8061,9 @@
       <c r="H60" t="s">
         <v>952</v>
       </c>
-      <c r="I60"/>
+      <c r="I60" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
@@ -8259,8 +8279,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I70" xr:uid="{B853B9BB-A641-4D42-A4EC-2CC9C4AA683C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J51">
+  <autoFilter ref="A1:J70" xr:uid="{B853B9BB-A641-4D42-A4EC-2CC9C4AA683C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K51">
     <sortCondition ref="B2:B51"/>
     <sortCondition ref="C2:C51"/>
   </sortState>
@@ -8273,7 +8293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D048F-C83C-42AF-AC46-34FFE0EE51A1}">
   <dimension ref="A1:L766"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
+++ b/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\HillsongWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024E012-540A-4F95-B11E-6FA04A45BA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41659274-62F6-4D45-BCF7-FFB1D33197E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -3692,9 +3692,6 @@
     <t>Tracks</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Track</t>
   </si>
   <si>
@@ -3984,6 +3981,9 @@
   </si>
   <si>
     <t>Luke Munns, Reuben Morgan</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -5249,6 +5249,11 @@
             <v>7151239</v>
           </cell>
         </row>
+        <row r="224">
+          <cell r="L224">
+            <v>7025708</v>
+          </cell>
+        </row>
         <row r="225">
           <cell r="L225">
             <v>7133494</v>
@@ -5259,6 +5264,11 @@
             <v>7125876</v>
           </cell>
         </row>
+        <row r="227">
+          <cell r="L227">
+            <v>7108556</v>
+          </cell>
+        </row>
         <row r="228">
           <cell r="L228">
             <v>7108656</v>
@@ -5269,6 +5279,26 @@
             <v>19007</v>
           </cell>
         </row>
+        <row r="230">
+          <cell r="L230">
+            <v>7143863</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="L231">
+            <v>7149237</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="L232">
+            <v>7122057</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="L233">
+            <v>7087303</v>
+          </cell>
+        </row>
         <row r="234">
           <cell r="L234">
             <v>22609</v>
@@ -6059,14 +6089,349 @@
             <v>32008</v>
           </cell>
         </row>
+        <row r="397">
+          <cell r="L397">
+            <v>3709898</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="L398">
+            <v>626713</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="L399">
+            <v>2489542</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="L400">
+            <v>120824</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="L401">
+            <v>2650429</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="L402">
+            <v>2177476</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="L403">
+            <v>2492216</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="L404">
+            <v>7027887</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="L405">
+            <v>5469291</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="L406">
+            <v>7139866</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="L407">
+            <v>5232617</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="L408">
+            <v>4775010</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="L409">
+            <v>3818569</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="L410">
+            <v>465840</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="L411">
+            <v>5384338</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="L412">
+            <v>7100964</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="L413">
+            <v>7133285</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="L414">
+            <v>7138599</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="L415">
+            <v>7105729</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="L416">
+            <v>7122177</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="L417">
+            <v>3373437</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="L418">
+            <v>10769</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="L419">
+            <v>18723</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="L420">
+            <v>7111321</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="L421">
+            <v>7050416</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="L422">
+            <v>7016161</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="L423">
+            <v>4930752</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="L424">
+            <v>7065053</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="L425">
+            <v>1540719</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="L426">
+            <v>4779872</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="L427">
+            <v>7136448</v>
+          </cell>
+        </row>
         <row r="428">
           <cell r="L428">
             <v>3540703</v>
           </cell>
         </row>
+        <row r="429">
+          <cell r="L429">
+            <v>4674207</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="L430">
+            <v>1083764</v>
+          </cell>
+        </row>
         <row r="431">
           <cell r="L431">
             <v>7108951</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="L432">
+            <v>7067249</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="L433">
+            <v>5997804</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="L434">
+            <v>1581778</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="L435">
+            <v>7023299</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="L436">
+            <v>2490706</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="L437">
+            <v>4572938</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="L438">
+            <v>4108704</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="L439">
+            <v>5075025</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="L440">
+            <v>7123436</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="L441">
+            <v>5783630</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="L442">
+            <v>7011438</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="L443">
+            <v>4972837</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="L444">
+            <v>1585970</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="L445">
+            <v>7119315</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="L446">
+            <v>426298</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="L447">
+            <v>4108797</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="L448">
+            <v>7129060</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="L449">
+            <v>30426</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="L450">
+            <v>4615235</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="L451">
+            <v>6058450</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="L452">
+            <v>7098758</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="L453">
+            <v>27051</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="L454">
+            <v>78897</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="L455">
+            <v>3994672</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="L456">
+            <v>7123068</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="L457">
+            <v>5060834</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="L458">
+            <v>5200924</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="L459">
+            <v>7011436</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="L460">
+            <v>5925663</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="L461">
+            <v>7130961</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="L462">
+            <v>7111932</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="L463">
+            <v>3217555</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="L464">
+            <v>5376377</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="L465">
+            <v>3383788</v>
           </cell>
         </row>
       </sheetData>
@@ -6775,6 +7140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -6784,7 +7150,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1215</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1213</v>
@@ -6808,10 +7174,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>1218</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1219</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>616</v>
@@ -6841,7 +7207,7 @@
         <v>48</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6868,7 +7234,7 @@
         <v>48</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,7 +7261,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6922,7 +7288,7 @@
         <v>50</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6949,7 +7315,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6976,7 +7342,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7003,7 +7369,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7030,7 +7396,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7057,7 +7423,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7084,7 +7450,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7111,7 +7477,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7122,7 +7488,7 @@
         <v>1998</v>
       </c>
       <c r="C13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -7138,7 +7504,7 @@
         <v>50</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7165,7 +7531,7 @@
         <v>50</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,7 +7558,7 @@
         <v>50</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7219,7 +7585,7 @@
         <v>50</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7246,7 +7612,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7276,10 +7642,10 @@
         <v>1186</v>
       </c>
       <c r="I18" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7306,7 +7672,7 @@
         <v>50</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7333,7 +7699,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7360,7 +7726,7 @@
         <v>50</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7390,7 +7756,7 @@
         <v>353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7417,7 +7783,7 @@
         <v>50</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7444,7 +7810,7 @@
         <v>50</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -7471,7 +7837,7 @@
         <v>50</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -7501,10 +7867,10 @@
         <v>352</v>
       </c>
       <c r="I26" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -7534,10 +7900,10 @@
         <v>352</v>
       </c>
       <c r="I27" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -7564,7 +7930,7 @@
         <v>50</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -7594,10 +7960,10 @@
         <v>1186</v>
       </c>
       <c r="I29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -7624,7 +7990,7 @@
         <v>50</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -7651,7 +8017,7 @@
         <v>50</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -7678,7 +8044,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -7705,7 +8071,7 @@
         <v>50</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -7716,7 +8082,7 @@
         <v>2004</v>
       </c>
       <c r="C34" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D34">
         <v>11</v>
@@ -7732,7 +8098,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -7759,7 +8125,7 @@
         <v>50</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -7786,7 +8152,7 @@
         <v>50</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -7797,7 +8163,7 @@
         <v>2005</v>
       </c>
       <c r="C37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D37">
         <v>17</v>
@@ -7816,10 +8182,10 @@
         <v>352</v>
       </c>
       <c r="I37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -7830,7 +8196,7 @@
         <v>2006</v>
       </c>
       <c r="C38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -7849,7 +8215,7 @@
         <v>353</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -7876,7 +8242,7 @@
         <v>50</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -7903,7 +8269,7 @@
         <v>50</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -7930,7 +8296,7 @@
         <v>50</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -7957,7 +8323,7 @@
         <v>48</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -7984,7 +8350,7 @@
         <v>50</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -7995,7 +8361,7 @@
         <v>2008</v>
       </c>
       <c r="C44" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -8011,10 +8377,10 @@
         <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -8041,7 +8407,7 @@
         <v>50</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -8071,10 +8437,10 @@
         <v>352</v>
       </c>
       <c r="I46" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -8085,7 +8451,7 @@
         <v>2009</v>
       </c>
       <c r="C47" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -8101,7 +8467,7 @@
         <v>50</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -8128,7 +8494,7 @@
         <v>50</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -8155,7 +8521,7 @@
         <v>50</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -8182,7 +8548,7 @@
         <v>48</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -8212,7 +8578,7 @@
         <v>353</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -8239,7 +8605,7 @@
         <v>50</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -8266,7 +8632,7 @@
         <v>50</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -8277,7 +8643,7 @@
         <v>2012</v>
       </c>
       <c r="C54" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D54">
         <v>22</v>
@@ -8293,10 +8659,10 @@
         <v>50</v>
       </c>
       <c r="H54" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -8326,7 +8692,7 @@
         <v>353</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -8353,7 +8719,7 @@
         <v>50</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -8380,7 +8746,7 @@
         <v>48</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -8407,10 +8773,10 @@
         <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -8437,7 +8803,7 @@
         <v>50</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -8464,10 +8830,10 @@
         <v>949</v>
       </c>
       <c r="I60" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -8494,7 +8860,7 @@
         <v>48</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -8521,7 +8887,7 @@
         <v>50</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -8548,7 +8914,7 @@
         <v>50</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -8559,7 +8925,7 @@
         <v>2016</v>
       </c>
       <c r="C64" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D64">
         <v>12</v>
@@ -8575,10 +8941,10 @@
         <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -8608,7 +8974,7 @@
         <v>353</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -8635,7 +9001,7 @@
         <v>48</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -8662,7 +9028,7 @@
         <v>50</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -8689,7 +9055,7 @@
         <v>48</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -8716,7 +9082,7 @@
         <v>50</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -8743,7 +9109,7 @@
         <v>48</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -8773,6 +9139,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
@@ -8786,7 +9153,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1215</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1213</v>
@@ -8795,7 +9162,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>65</v>
@@ -8804,7 +9171,7 @@
         <v>658</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>354</v>
@@ -11707,7 +12074,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F102" t="s">
         <v>533</v>
@@ -11751,7 +12118,7 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F104" t="s">
         <v>653</v>
@@ -11773,7 +12140,7 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F105" t="s">
         <v>1053</v>
@@ -11798,7 +12165,7 @@
         <v>936</v>
       </c>
       <c r="F106" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -11839,7 +12206,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F108" t="s">
         <v>992</v>
@@ -11861,7 +12228,7 @@
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F109" t="s">
         <v>1053</v>
@@ -11905,10 +12272,10 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F111" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -12861,7 +13228,7 @@
         <v>1998</v>
       </c>
       <c r="C152" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -12883,7 +13250,7 @@
         <v>1998</v>
       </c>
       <c r="C153" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -12905,7 +13272,7 @@
         <v>1998</v>
       </c>
       <c r="C154" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -12914,7 +13281,7 @@
         <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -12927,7 +13294,7 @@
         <v>1998</v>
       </c>
       <c r="C155" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -12949,16 +13316,16 @@
         <v>1998</v>
       </c>
       <c r="C156" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F156" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -12971,13 +13338,13 @@
         <v>1998</v>
       </c>
       <c r="C157" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F157" t="s">
         <v>1030</v>
@@ -12993,13 +13360,13 @@
         <v>1998</v>
       </c>
       <c r="C158" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F158" t="s">
         <v>55</v>
@@ -13015,7 +13382,7 @@
         <v>1998</v>
       </c>
       <c r="C159" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -13037,7 +13404,7 @@
         <v>1998</v>
       </c>
       <c r="C160" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D160">
         <v>9</v>
@@ -13059,7 +13426,7 @@
         <v>1998</v>
       </c>
       <c r="C161" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D161">
         <v>10</v>
@@ -13068,7 +13435,7 @@
         <v>984</v>
       </c>
       <c r="F161" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -13081,7 +13448,7 @@
         <v>1998</v>
       </c>
       <c r="C162" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D162">
         <v>11</v>
@@ -13103,16 +13470,16 @@
         <v>1998</v>
       </c>
       <c r="C163" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D163">
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F163" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -13125,7 +13492,7 @@
         <v>1998</v>
       </c>
       <c r="C164" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D164">
         <v>13</v>
@@ -13147,13 +13514,13 @@
         <v>1998</v>
       </c>
       <c r="C165" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D165">
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F165" t="s">
         <v>521</v>
@@ -13169,7 +13536,7 @@
         <v>1998</v>
       </c>
       <c r="C166" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D166">
         <v>15</v>
@@ -13191,13 +13558,13 @@
         <v>1998</v>
       </c>
       <c r="C167" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D167">
         <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F167" t="s">
         <v>70</v>
@@ -15701,10 +16068,10 @@
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F255" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G255" t="s">
         <v>1187</v>
@@ -15735,10 +16102,10 @@
         <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F256" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G256" t="s">
         <v>1188</v>
@@ -15769,10 +16136,10 @@
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F257" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G257" t="s">
         <v>1189</v>
@@ -15837,7 +16204,7 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F259" t="s">
         <v>533</v>
@@ -15871,10 +16238,10 @@
         <v>6</v>
       </c>
       <c r="E260" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F260" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G260" t="s">
         <v>1192</v>
@@ -15905,10 +16272,10 @@
         <v>7</v>
       </c>
       <c r="E261" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F261" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G261" t="s">
         <v>1193</v>
@@ -15942,7 +16309,7 @@
         <v>245</v>
       </c>
       <c r="F262" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G262" t="s">
         <v>1200</v>
@@ -15973,7 +16340,7 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F263" t="s">
         <v>1113</v>
@@ -16007,10 +16374,10 @@
         <v>10</v>
       </c>
       <c r="E264" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F264" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G264" t="s">
         <v>1195</v>
@@ -16041,10 +16408,10 @@
         <v>11</v>
       </c>
       <c r="E265" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F265" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G265" t="s">
         <v>1196</v>
@@ -16075,10 +16442,10 @@
         <v>12</v>
       </c>
       <c r="E266" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F266" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G266" t="s">
         <v>1197</v>
@@ -16143,7 +16510,7 @@
         <v>14</v>
       </c>
       <c r="E268" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F268" t="s">
         <v>55</v>
@@ -16862,7 +17229,7 @@
       </c>
       <c r="L290" s="4" t="str">
         <f>IF(AND(ISNUMBER(H290), COUNTIF([1]Songs!$L:$L,H290)&gt;0),"YES","")</f>
-        <v/>
+        <v>YES</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -19767,7 +20134,7 @@
         <v>2004</v>
       </c>
       <c r="C381" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -19792,7 +20159,7 @@
         <v>2004</v>
       </c>
       <c r="C382" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -19817,7 +20184,7 @@
         <v>2004</v>
       </c>
       <c r="C383" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D383">
         <v>3</v>
@@ -19842,7 +20209,7 @@
         <v>2004</v>
       </c>
       <c r="C384" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D384">
         <v>4</v>
@@ -19867,13 +20234,13 @@
         <v>2004</v>
       </c>
       <c r="C385" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D385">
         <v>5</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F385" t="s">
         <v>926</v>
@@ -19892,7 +20259,7 @@
         <v>2004</v>
       </c>
       <c r="C386" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D386">
         <v>6</v>
@@ -19917,13 +20284,13 @@
         <v>2004</v>
       </c>
       <c r="C387" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D387">
         <v>7</v>
       </c>
       <c r="E387" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F387" t="s">
         <v>773</v>
@@ -19942,16 +20309,16 @@
         <v>2004</v>
       </c>
       <c r="C388" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D388">
         <v>8</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F388" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K388" s="2">
         <v>0.26527777777777778</v>
@@ -19967,16 +20334,16 @@
         <v>2004</v>
       </c>
       <c r="C389" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D389">
         <v>9</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F389" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K389" s="2">
         <v>0.25555555555555559</v>
@@ -19992,13 +20359,13 @@
         <v>2004</v>
       </c>
       <c r="C390" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D390">
         <v>10</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F390" t="s">
         <v>773</v>
@@ -20017,13 +20384,13 @@
         <v>2004</v>
       </c>
       <c r="C391" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D391">
         <v>11</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F391" t="s">
         <v>773</v>
@@ -21061,16 +21428,16 @@
         <v>2006</v>
       </c>
       <c r="C420" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D420">
         <v>1</v>
       </c>
       <c r="E420" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F420" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="4"/>
@@ -21085,7 +21452,7 @@
         <v>2006</v>
       </c>
       <c r="C421" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -21094,7 +21461,7 @@
         <v>235</v>
       </c>
       <c r="F421" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K421" s="2"/>
       <c r="L421" s="4"/>
@@ -21109,16 +21476,16 @@
         <v>2006</v>
       </c>
       <c r="C422" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D422">
         <v>3</v>
       </c>
       <c r="E422" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F422" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
@@ -21133,13 +21500,13 @@
         <v>2006</v>
       </c>
       <c r="C423" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D423">
         <v>4</v>
       </c>
       <c r="E423" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F423" t="s">
         <v>78</v>
@@ -21157,16 +21524,16 @@
         <v>2006</v>
       </c>
       <c r="C424" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D424">
         <v>5</v>
       </c>
       <c r="E424" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F424" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
@@ -21181,16 +21548,16 @@
         <v>2006</v>
       </c>
       <c r="C425" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D425">
         <v>6</v>
       </c>
       <c r="E425" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
@@ -21205,16 +21572,16 @@
         <v>2006</v>
       </c>
       <c r="C426" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D426">
         <v>7</v>
       </c>
       <c r="E426" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F426" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
@@ -21229,16 +21596,16 @@
         <v>2006</v>
       </c>
       <c r="C427" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D427">
         <v>8</v>
       </c>
       <c r="E427" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F427" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
@@ -21253,7 +21620,7 @@
         <v>2006</v>
       </c>
       <c r="C428" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D428">
         <v>9</v>
@@ -21277,16 +21644,16 @@
         <v>2006</v>
       </c>
       <c r="C429" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D429">
         <v>10</v>
       </c>
       <c r="E429" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F429" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="4"/>
@@ -21301,16 +21668,16 @@
         <v>2006</v>
       </c>
       <c r="C430" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D430">
         <v>11</v>
       </c>
       <c r="E430" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F430" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
@@ -21325,13 +21692,13 @@
         <v>2006</v>
       </c>
       <c r="C431" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D431">
         <v>12</v>
       </c>
       <c r="E431" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F431" t="s">
         <v>1005</v>
@@ -21925,7 +22292,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F447" t="s">
         <v>1156</v>
@@ -21951,7 +22318,7 @@
         <v>2</v>
       </c>
       <c r="E448" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F448" t="s">
         <v>1157</v>
@@ -21977,7 +22344,7 @@
         <v>3</v>
       </c>
       <c r="E449" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F449" t="s">
         <v>1163</v>
@@ -22003,7 +22370,7 @@
         <v>4</v>
       </c>
       <c r="E450" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F450" t="s">
         <v>1158</v>
@@ -22081,7 +22448,7 @@
         <v>7</v>
       </c>
       <c r="E453" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F453" t="s">
         <v>78</v>
@@ -22133,7 +22500,7 @@
         <v>9</v>
       </c>
       <c r="E455" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F455" t="s">
         <v>121</v>
@@ -22159,7 +22526,7 @@
         <v>10</v>
       </c>
       <c r="E456" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F456" t="s">
         <v>1160</v>
@@ -22211,7 +22578,7 @@
         <v>12</v>
       </c>
       <c r="E458" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F458" t="s">
         <v>1161</v>
@@ -22263,7 +22630,7 @@
         <v>14</v>
       </c>
       <c r="E460" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F460" t="s">
         <v>1162</v>
@@ -24048,7 +24415,7 @@
       </c>
       <c r="L509" s="4" t="str">
         <f>IF(AND(ISNUMBER(H509), COUNTIF([1]Songs!$L:$L,H509)&gt;0),"YES","")</f>
-        <v/>
+        <v>YES</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
@@ -26389,7 +26756,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K573" s="2">
         <v>2.2222222222222223E-2</v>
@@ -26438,7 +26805,7 @@
         <v>3</v>
       </c>
       <c r="E575" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F575" t="s">
         <v>60</v>
@@ -26490,7 +26857,7 @@
         <v>5</v>
       </c>
       <c r="E577" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F577" t="s">
         <v>1155</v>
@@ -26516,7 +26883,7 @@
         <v>6</v>
       </c>
       <c r="E578" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F578" t="s">
         <v>81</v>
@@ -26568,7 +26935,7 @@
         <v>8</v>
       </c>
       <c r="E580" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F580" t="s">
         <v>720</v>
@@ -27623,7 +27990,7 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F608" t="s">
         <v>1150</v>
@@ -27681,7 +28048,7 @@
         <v>3</v>
       </c>
       <c r="E610" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F610" t="s">
         <v>1142</v>
@@ -27768,7 +28135,7 @@
         <v>6</v>
       </c>
       <c r="E613" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F613" t="s">
         <v>1144</v>
@@ -27797,7 +28164,7 @@
         <v>7</v>
       </c>
       <c r="E614" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F614" t="s">
         <v>1153</v>
@@ -27826,7 +28193,7 @@
         <v>8</v>
       </c>
       <c r="E615" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F615" t="s">
         <v>1145</v>
@@ -27855,7 +28222,7 @@
         <v>9</v>
       </c>
       <c r="E616" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F616" t="s">
         <v>1146</v>
@@ -27884,7 +28251,7 @@
         <v>10</v>
       </c>
       <c r="E617" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F617" t="s">
         <v>1154</v>
@@ -27913,7 +28280,7 @@
         <v>11</v>
       </c>
       <c r="E618" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F618" t="s">
         <v>1148</v>
@@ -27942,7 +28309,7 @@
         <v>12</v>
       </c>
       <c r="E619" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F619" t="s">
         <v>1149</v>
@@ -32819,7 +33186,7 @@
       </c>
       <c r="L753" t="str">
         <f>IF(AND(ISNUMBER(H753), COUNTIF([1]Songs!$L:$L,H753)&gt;0),"YES","")</f>
-        <v/>
+        <v>YES</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
